--- a/InputFiles/TC30_Canine_StudyNCATSCOP01-Biobank_SamplePath_FileType.xlsx
+++ b/InputFiles/TC30_Canine_StudyNCATSCOP01-Biobank_SamplePath_FileType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0302\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0502\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25078912-09B1-4063-801E-76EC3C042AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B8376-C517-422A-88FF-A6909AA14AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.35"/>
